--- a/Data/unique_little_days_acceptance_to_match_activation.xlsx
+++ b/Data/unique_little_days_acceptance_to_match_activation.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Match ID 18Char</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Days Acceptance to Match Activation Date</t>
+    <t xml:space="preserve">Days Little Acceptance to Match Activation Date</t>
   </si>
   <si>
     <t xml:space="preserve">0032J00003PLfclQAD</t>
